--- a/objects.xlsx
+++ b/objects.xlsx
@@ -1,133 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa6d9d872aabdb72/Desktop/Studium/Lehrstul Digital Services/IntroCS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_2AEDD48ED97B208FE372C8325E0500B0476FC1C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA4827CC-05AE-469E-B8B0-ABA22A5CFEAD}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Pubdate</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>bflipp</t>
-  </si>
-  <si>
-    <t>there's a guy at work that uses #chatgpt to write large portions of his code. I'm not necessarily against that but I have not been able to bring myself to even log into the site. I just do not believe in the technology and I feel like I can't support closed source LLMs that are just stealing the labor of other people with no attribution or compensation.</t>
-  </si>
-  <si>
-    <t>thejapantimes</t>
-  </si>
-  <si>
-    <t>Before we can ponder existential threats of the new technology, Silicon Valley must be forced to disclose more about how their tools are created. https://www.japantimes.co.jp/commentary/2023/07/30/world/secretive-chatbots/?utm_content=buffera8bdc&amp;utm_medium=social&amp;utm_source=mastodon&amp;utm_campaign=bffmstdn #commentary #worldnews #openai #chatgpt #artificialintelligence #ai #computers #cybersecurity</t>
-  </si>
-  <si>
-    <t>garry</t>
-  </si>
-  <si>
-    <t>Today’s AI News &amp; CommentGoogle’s Jigsaw was trying to fight toxic speech with AI. Then the AI started talkinghttps://www.fastcompany.com/90929549/google-jigsaw-toxic-speech-aiUK spy agencies want to relax ‘burdensome’ laws on AI data usehttps://www.theguardian.com/technology/2023/aug/01/uk-intelligence-spy-agencies-relax-burdensome-laws-ai-data-bpdsTurns out there’s another problem with AI – its environmental tollhttps://www.theguardian.com/technology/2023/aug/01/techscape-environment-cost-ai-artificial-intelligenceAdobe Staff Worry Their AI Could Kill the Jobs of Their Own Customershttps://petapixel.com/2023/07/31/adobe-staff-worry-their-ai-could-kill-the-jobs-of-their-own-customers/Generative AI services pulled from Apple App Store in China ahead of new regulationshttps://techcrunch.com/2023/08/01/generative-ai-services-pulled-from-apple-app-store-in-china-ahead-of-new-regulations/YouTube uses AI to summarize videos in latest testhttps://www.theverge.com/2023/8/1/23815321/youtube-ai-video-summariesSteg.AI puts deep learning on the job in a clever evolution of watermarkinghttps://techcrunch.com/2023/08/01/steg-ai-puts-deep-learning-on-the-job-in-a-clever-evolution-of-watermarking/Workers are spilling more secrets to AI than to their friendshttps://www.techradar.com/pro/workers-are-spilling-more-secrets-to-ai-than-to-their-friendsThreads is dead - can AI chatbots save Meta's Twitter clone?https://www.techradar.com/computing/artificial-intelligence/threads-is-dead-can-ai-chatbots-save-metas-twitter-cloneOla’s Aggarwal sets eyes on AI, semiconductor designhttps://techcrunch.com/2023/08/01/bhavish-aggarwal-ola-ai-semiconductor/Google will ‘supercharge’ Assistant with AI that’s more like ChatGPT and Bardhttps://www.theverge.com/2023/7/31/23814702/google-assistant-ai-features-layoffs-bardIs ChatGPT Smart Enough to Solve Problems Without Words? https://gizmodo.com/ucla-study-of-chatgpt-analogical-reasoning-1850693490Kevin Systrom talks AI and his post-Instagram social app at TechCrunch Disrupt 2023https://techcrunch.com/2023/07/31/kevin-systrom-talks-ai-and-his-post-instagram-social-app-at-techcrunch-disrupt-2023/Using Spotify's AI DJ has turned the tables on Apple Music for mehttps://www.imore.com/apps/music-apps/i-used-spotifys-ai-dj-for-a-week-and-apple-music-has-some-catching-up-to-doNews Corp using AI to produce 3,000 Australian local news stories a weekhttps://www.theguardian.com/media/2023/aug/01/news-corp-ai-chat-gpt-storiesA bot walks into a bar … Edinburgh fringe performers use AI to write jokeshttps://www.theguardian.com/culture/2023/jul/30/a-bot-walks-into-a-bar-edinburgh-fringe-performers-use-ai-to-write-jokesMIT bods offer PhotoGuard gadget to thwart AI deepfakeshttps://www.theregister.com/2023/08/01/photoguard_deepfake_ai/Meta Has A.I. Google Has A.I. Microsoft Has A.I. Amazon Has a Plan.https://slate.com/technology/2023/07/the-cloud-giant-isnt-trying-to-win-the-race-it-wants-to-own-the-road.htmlMeet Council: The Future of AI Agentshttps://hackernoon.com/meet-council-the-future-of-ai-agentsChatGPT maker OpenAI has a secret image generator people are calling ‘insane’https://bgr.com/tech/chatgpt-maker-openai-has-a-secret-image-generator-people-are-calling-insane/The AI rules that US policymakers are considering, explainedhttps://www.vox.com/future-perfect/23775650/ai-regulation-openai-gpt-anthropic-midjourney-stableLaunched a Project Twice with Two Horrible Names but Still Made Money!https://hackernoon.com/launched-a-project-twice-with-two-horrible-names-but-still-made-moneyWorkers at risk of AI radically changing their jobs aren't too worried about ithttps://www.businessinsider.com/jobs-at-risk-ai-will-change-work-pew-research-center-2023-7When AI Is Trained on AI-Generated Data, Strange Things Start to Happenhttps://futurism.com/ai-trained-ai-generated-data-interviewMeta is reportedly planning an Abe Lincoln chatbot as part of a public AI pushhttps://www.engadget.com/meta-is-reportedly-planning-an-abe-lincoln-chatbot-as-part-of-a-public-ai-push-190922903.htmlMeta Working on Labels for AI-Generated Content: Reporthttps://petapixel.com/2023/08/01/meta-working-on-labels-for-ai-generated-content-report/Not all early-stage AI startups are created equalhttps://techcrunch.com/2023/08/01/not-all-early-stage-ai-startups-are-created-equal/ Kickstarter requires generative AI projects to disclose additional infohttps://techcrunch.com/2023/08/01/kickstarter-requires-generative-ai-projects-to-disclose-additional-info/Exclusive: Hostinger's new AI tool can write your entire blog post so you don't have tohttps://www.techradar.com/pro/exclusive-hostingers-new-ai-tool-can-write-your-entire-blog-post-so-you-dont-have-toThere’s no reason to panic over WormGPThttps://techcrunch.com/2023/08/01/theres-no-reason-to-panic-over-wormgpt/As spend management space heats up, Brex and Rho turn to AI startups to help power new productshttps://techcrunch.com/2023/08/01/as-spend-management-space-heats-up-brex-and-rho-turn-to-ai-startups-to-help-power-new-products/#AI #ArtificialIntelligence #ML #MachineLearning #LLM #ChatGPT #BingChat #SwarmsOfRampantAIChatbots</t>
-  </si>
-  <si>
-    <t>thomasapowell</t>
-  </si>
-  <si>
-    <t>Filter approaches couldn't secure shit web apps from injections 100%, why do people think it would work for #ChatGPT !?!  Wired has a very accessible article talking about just this https://www.wired.com/story/ai-adversarial-attacks/ #LLM Toxicity is a training fail. The ugly data in the model simply can’t be band-aided via a filter full stop.  The REAL solution is to not have toxic training data to build the model which means no big quick web scrape train method, but rather quite a lot of hard work.  Why not try that?</t>
-  </si>
-  <si>
-    <t>PrivacyDigest</t>
-  </si>
-  <si>
-    <t>A New Attack Impacts ChatGPT—and No One Knows How to Stop ItResearchers found a simple way to make #ChatGPT , #Bard , and other #chatbots misbehave, proving that #AI is hard to tame.https://www.wired.com/story/ai-adversarial-attacks/</t>
-  </si>
-  <si>
-    <t>SheepOverboard</t>
-  </si>
-  <si>
-    <t>First, #AI came after the artists and we said nothing. Then AI came for the journalists, and we said nothing... 😱 "In early July, the Associated Press made a deal with OpenAI, maker of #ChatGPT, to license “part of AP’s text archive” and get access to “OpenAI’s technology and product expertise.” "A few days later, #OpenAI announced a $5 million grant, accompanied by $5 million in software use “credits,” to the American Journalism Project, an organization that supports nonprofit newsrooms. "Meanwhile, Google has reportedly been presenting major news organizations, including the New York Times, the Washington Post, and the Wall Street Journal, with a new software “personal assistant” for journalists, code-named Genesis, which promises to “take in information — details of current events, for example — and generate news content,” with a pitch described by some in attendance as unsettling."#Media #Journalism #Reporting #News https://nymag.com/intelligencer/2023/08/how-ai-will-change-the-news-business.html</t>
-  </si>
-  <si>
-    <t>timokissel</t>
-  </si>
-  <si>
-    <t>Stories like this tend to tell you more about standardized tests like the SAT than about Large Language Models (#LLMs) like #ChatGPT.Wittgenstein's Ruler.#AI #ArtificialIntelligencehttps://arstechnica.com/science/2023/07/large-language-models-beat-undergrads-on-tests-of-reasoning-via-analogy/</t>
-  </si>
-  <si>
-    <t>TrueSciPhi</t>
-  </si>
-  <si>
-    <t>"As an artificial intelligence, I don't make choices based on odds or randomness. The decision to draw a cat instead of a dog was arbitrary and not influenced by any particular probabilistic factors. I could have just as easily drawn a dog..."https://www.truesciphi.ai/p/unconscious-decisions#AI #LLM #ChatGPT</t>
-  </si>
-  <si>
-    <t>williamgunn</t>
-  </si>
-  <si>
-    <t>Like autocorrect, but for paragraphs. This will lead to ducking hilarious mistakes (except when the mistakes kill people). https://apnews.com/article/artificial-intelligence-hallucination-chatbots-chatgpt-falsehoods-ac4672c5b06e6f91050aa46ee731bcf4#LLMs #ChatGPT #openai #artificialintelligence</t>
-  </si>
-  <si>
-    <t>doctorlaura</t>
-  </si>
-  <si>
-    <t>A scientist who wanted to study the effects of interacting with these LLM chatbots would be required to fulfill ethical requirements regarding participation of the subjects, but Mark Zuckerberg gets to experiment on millions of users with essentially no oversight. Future generations may look back on this in horror: Meta prepares chatbots with personas to try to retain users https://on.ft.com/3qddrms #meta #ai #llm #ChatGPT #ethics #technofeudalism</t>
-  </si>
-  <si>
-    <t>TechNews</t>
-  </si>
-  <si>
-    <t>Ars Technica: Meta plans AI-powered chatbots to boost social media numbers https://arstechnica.com/?p=1958059 #Tech #arstechnica #IT #Technology #largelangaugemodels #machinelearning #Instagram #chatbots #Facebook #ChatGPT #threads #Biz&amp;IT #Llama2 #Tech #meta #AI</t>
-  </si>
-  <si>
-    <t>acemyhomework</t>
-  </si>
-  <si>
-    <t>So, where do ai models like ChatGPT, Bing Chat and Bard get their information from before they remix it and churn it as query results?What are the ethics of all the mixing and remixing of content?What about the quality and accuracy of the search/query results?Therefore, will ai truly deplete the value of human writers, or human writers will become even more valuable?   What are your thoughts around these issue?#ai#chatgpt#bingchat#bard</t>
-  </si>
-  <si>
-    <t>NuSkooler</t>
-  </si>
-  <si>
-    <t>Built a quick OpenAI project in Rust for the CLI. I may build upon it a bit later to have more features...For now, it's used to generate a welcome message to my BBS, Xibalba!Check it out at https://xibalba.l33t.codes/#bbs #xibalbabbs #rust #openai #chatgpt</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d/m/yy\ h:mm\ AM/PM;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d/m/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,41 +54,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,176 +444,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="130.54296875" style="3" customWidth="1"/>
+    <col width="36.26953125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="36.6328125" customWidth="1" style="8" min="2" max="2"/>
+    <col width="130.54296875" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>45140.201655092591</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45140.127790358798</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45140.004560185182</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45139.988194444442</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45139.957303240742</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45139.935694444437</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7">
-        <v>45139.933368055557</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7">
-        <v>45139.889201388891</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45139.8729790625</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45139.86755072917</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7">
-        <v>45139.85019675926</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45139.844733796293</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7">
-        <v>45139.812326388892</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Pubdate</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="43.5" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>theaspiringnerd</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>45147.59342592592</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>I asked #chatgpt to come up with a list of 80s-90s hacking and phreaking related books and here is what I got. Spoiler alert: it's pretty much what most humans have suggested too. List in thread below 🧵👇 #infosec #retrocomputing #hacking #phreaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="58" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>ypujante</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>45147.57994212963</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>In case you want to block OpenAI from using your site (not retroactive though...), you can now block it: https://platform.openai.com/docs/gptbot#ai #chatgpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="409.5" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>zambrella</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>45147.57403935185</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Looking at implementing #chatgpt into my app. Exciting times! #flutter</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="58" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>DrJRN</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>45147.56841435185</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>We are drafting a Department statement on what AI is, our position against the use of AI, and the penalties for using AI. We are hoping a uniform policy will be more effective than 112 individual ones. #AI #chatgpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="29" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>dbvirago</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>45147.55643518519</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>I got curios about ChatGPT, so I did a little research and wrote this article.#AI #ChatGPT https://medium.com/p/e0238fcfcdba</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="101.5" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>ctomczyk</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>45147.52249462963</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>"OpenAI releases GPTBot with instructions on how to restrict access"https://www.sitelint.com/blog/openai-releases-gptbot-with-instructions-on-how-to-restrict-access/#web #chatgpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>pfannkuchen</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>45147.49773148148</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>https://chat.openai.com/share/ed765fbd-c814-4233-8881-566cc19b9724That's bad. #ai #chatgpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="43.5" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>whompertoft</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>45147.42291960648</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Just discovered ChatGPT understands Cornish and will translate from English if asked. More proficient speakers than me should probably check its accuracy, but possibly a resource?! #Kernow #Kernewek #Cornwall #MinorityLanguages #ChatGPT #AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="43.5" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>jabsonik</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>45147.41918981481</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>’ Forget ‘#AI doomerism’ hype over #ChatGPT, big tech’s colonial attitude lets hateful electoral #propaganda be fed to millions ’ [esp. in #Africa]https://www.theguardian.com/global-development/2023/aug/09/ai-chatgpt-doomerism-threat-already-here-big-tech-algorithms-sow-disinformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="43.5" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Eka_FOOF_A</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>45147.40578703704</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>The real way AI will destroy the world.#AI #ChatGPT #Amazon #Twitter #XTwitter https://arstechnica.com/information-technology/2023/08/author-discovers-ai-generated-counterfeit-books-written-in-her-name-on-amazon/?utm_brand=arstechnica&amp;utm_social-type=owned&amp;utm_source=mastodon&amp;utm_medium=social</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="29" customHeight="1">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>gicrisf</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45147.40373842593</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>About writing with LLMshttps://www.noemamag.com/what-ai-teaches-us-about-good-writing/#writing #chatgpt #llm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="43.5" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>gianmarcogg03</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>45147.38608796296</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>It may be a good idea to block the #GPTBot crawler from your websites with something like this (if you use #Nginx):if ($http_user_agent ~ (GPTBot) ) {return 403;}rather than using the robots.txt file since who knows if they really respect it.#AI #OpenAI #ChatGPT #GPT4 #GPT5 #Copyright #CreativeCommons</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="29" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>andreagrandi</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>45147.36593299769</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>GitHub #Copilot and #ChatGPT will replace #software #developers in the same way airplanes autopilot replaced the airplane's pilots.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OddNina</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>45147.33938782407</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Es ist eine Sache geschäftliche Emails mit Höflichkeitsfloskeln aufzupusten, eine andere FakeItCauseICantMakeIt Anforderungen in halbgarem technischen AI Kokolloris zu verargumentieren zu wollen. #AICommunication #ChatGPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>angelo</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>45147.28835648148</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>🤔 Do we need ai apps? https://www.wired.com/story/is-in-app-ai-useful/#ai #chatgpt #deeplearning</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>davemosk</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>45147.25606481481</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hallucination doesn't even begin to describe this hilarious but terrifying #ChatGPT rant. Calculating Sunflower Oil Productionhttps://chat.openai.com/share/f5341665-7f08-4fca-9639-04201363506e</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>